--- a/01_doc/test_design/餐厅订餐系统_测试用例.xlsx
+++ b/01_doc/test_design/餐厅订餐系统_测试用例.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niesu\Documents\GitHub\cuoxiazi\cuoxiazi\01_doc\test_design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\GitHub\cuoxiazi\01_doc\test_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -771,15 +771,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -875,6 +875,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -950,7 +951,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -959,6 +960,13 @@
       <name val="楷体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1492,7 +1500,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1560,13 +1568,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normal 2 3" xfId="3"/>
     <cellStyle name="Normal 2 4" xfId="4"/>
     <cellStyle name="Normal 2 5" xfId="5"/>
     <cellStyle name="Normal 2 6" xfId="6"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1698,7 +1706,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1991,21 +1999,21 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="4" max="4" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="6"/>
-    <col min="9" max="9" width="14.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="2" width="11.25" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="6"/>
+    <col min="4" max="4" width="10.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="6"/>
+    <col min="9" max="9" width="14.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="13.625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="6" customWidth="1"/>
+    <col min="13" max="13" width="19.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
@@ -2400,20 +2408,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="62" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.85546875" style="71" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="71" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="72" customWidth="1"/>
-    <col min="7" max="7" width="54.42578125" style="73" customWidth="1"/>
-    <col min="8" max="8" width="62.7109375" style="74" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="74" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="21.25" style="62" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.875" style="71" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="71" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="72" customWidth="1"/>
+    <col min="7" max="7" width="54.375" style="73" customWidth="1"/>
+    <col min="8" max="8" width="62.75" style="74" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="74" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2457,7 +2465,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68" t="s">
         <v>63</v>
       </c>
@@ -2484,7 +2492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="69" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -2503,7 +2511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="69" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="69" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
@@ -2521,7 +2529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="69" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
@@ -2539,7 +2547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="69" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
@@ -2557,7 +2565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="69" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
@@ -2575,7 +2583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="69" customFormat="1" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
@@ -2593,7 +2601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="69" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
@@ -2611,7 +2619,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="69" customFormat="1" ht="29.25" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -2637,7 +2645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="69" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
@@ -2655,7 +2663,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="69" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
@@ -2673,7 +2681,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
@@ -2689,7 +2697,7 @@
       </c>
       <c r="I14" s="84"/>
     </row>
-    <row r="15" spans="1:9" s="69" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
@@ -2707,7 +2715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
@@ -2725,7 +2733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
@@ -2743,7 +2751,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="68" t="s">
         <v>42</v>
       </c>
@@ -2769,7 +2777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
@@ -2787,7 +2795,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
@@ -2803,7 +2811,7 @@
       </c>
       <c r="I20" s="70"/>
     </row>
-    <row r="21" spans="1:9" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
@@ -2821,7 +2829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
@@ -2839,7 +2847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
@@ -2857,7 +2865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
@@ -2875,7 +2883,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
@@ -2893,7 +2901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="69" customFormat="1" ht="43.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="69" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="68" t="s">
         <v>62</v>
       </c>
@@ -2922,7 +2930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="69" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
@@ -2940,7 +2948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="69" customFormat="1" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
@@ -2958,7 +2966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
@@ -2976,7 +2984,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="69" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
@@ -2994,7 +3002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="69" customFormat="1" ht="86.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="69" customFormat="1" ht="72" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
       <c r="D31" s="76"/>
@@ -3012,7 +3020,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="69" customFormat="1" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
       <c r="D32" s="76"/>
@@ -3030,7 +3038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
       <c r="D33" s="76"/>
@@ -3048,7 +3056,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="69" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
       <c r="D34" s="76"/>
@@ -3066,7 +3074,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="69" customFormat="1" ht="29.25" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="68" t="s">
         <v>54</v>
       </c>
@@ -3092,7 +3100,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
@@ -3110,7 +3118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="69" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
@@ -3128,7 +3136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
@@ -3146,7 +3154,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="69" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" s="69" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
@@ -3164,7 +3172,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="69" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
       <c r="D40" s="76"/>
@@ -3182,7 +3190,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
       <c r="D41" s="76"/>
@@ -3200,7 +3208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="69" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="69" customFormat="1" ht="43.5" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B42" s="76"/>
       <c r="C42" s="76"/>
       <c r="D42" s="76"/>
@@ -3218,7 +3226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="69" customFormat="1" ht="29.25" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68" t="s">
         <v>14</v>
       </c>
@@ -3373,7 +3381,7 @@
       </c>
       <c r="I50" s="83"/>
     </row>
-    <row r="51" spans="2:9" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
@@ -3389,7 +3397,7 @@
       </c>
       <c r="I51" s="70"/>
     </row>
-    <row r="52" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
@@ -3405,7 +3413,7 @@
       </c>
       <c r="I52" s="70"/>
     </row>
-    <row r="53" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
@@ -3421,7 +3429,7 @@
       </c>
       <c r="I53" s="70"/>
     </row>
-    <row r="54" spans="2:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54" s="68"/>
       <c r="C54" s="68" t="s">
         <v>65</v>
@@ -3531,7 +3539,7 @@
       </c>
       <c r="I59" s="83"/>
     </row>
-    <row r="60" spans="2:9" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B60" s="59"/>
       <c r="E60" s="59"/>
       <c r="F60" s="56">
@@ -3545,7 +3553,7 @@
       </c>
       <c r="I60" s="70"/>
     </row>
-    <row r="61" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
@@ -3561,7 +3569,7 @@
       </c>
       <c r="I61" s="70"/>
     </row>
-    <row r="62" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
@@ -3577,7 +3585,7 @@
       </c>
       <c r="I62" s="70"/>
     </row>
-    <row r="63" spans="2:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B63" s="68"/>
       <c r="C63" s="68" t="s">
         <v>69</v>
@@ -3687,7 +3695,7 @@
       </c>
       <c r="I68" s="83"/>
     </row>
-    <row r="69" spans="2:9" ht="86.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" ht="86.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
@@ -3703,7 +3711,7 @@
       </c>
       <c r="I69" s="70"/>
     </row>
-    <row r="70" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
@@ -3719,7 +3727,7 @@
       </c>
       <c r="I70" s="70"/>
     </row>
-    <row r="71" spans="2:9" ht="72" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" ht="72" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
@@ -3735,7 +3743,7 @@
       </c>
       <c r="I71" s="70"/>
     </row>
-    <row r="72" spans="2:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="68"/>
       <c r="C72" s="68" t="s">
         <v>205</v>
@@ -3757,7 +3765,7 @@
       </c>
       <c r="I72" s="83"/>
     </row>
-    <row r="73" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
@@ -3773,7 +3781,7 @@
       </c>
       <c r="I73" s="70"/>
     </row>
-    <row r="74" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
@@ -3791,7 +3799,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
@@ -3807,7 +3815,7 @@
       </c>
       <c r="I75" s="70"/>
     </row>
-    <row r="76" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B76" s="76"/>
       <c r="C76" s="76"/>
       <c r="D76" s="76"/>
@@ -3823,7 +3831,7 @@
       </c>
       <c r="I76" s="70"/>
     </row>
-    <row r="77" spans="2:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="68"/>
       <c r="C77" s="68" t="s">
         <v>206</v>
@@ -3847,7 +3855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
@@ -3863,7 +3871,7 @@
       </c>
       <c r="I78" s="70"/>
     </row>
-    <row r="79" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
@@ -3879,7 +3887,7 @@
       </c>
       <c r="I79" s="70"/>
     </row>
-    <row r="80" spans="2:9" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
@@ -4054,6 +4062,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:H1"/>
   </mergeCells>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -4092,17 +4101,17 @@
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="77" t="s">
         <v>11</v>
       </c>
@@ -4119,7 +4128,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B2" s="78" t="s">
         <v>14</v>
       </c>
@@ -4136,7 +4145,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B3" s="78" t="s">
         <v>63</v>
       </c>
@@ -4153,7 +4162,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B4" s="78" t="s">
         <v>62</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="78" t="s">
         <v>17</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="45"/>
       <c r="B6" s="79" t="s">
         <v>19</v>
@@ -4201,7 +4210,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="45"/>
       <c r="B7" s="79" t="s">
         <v>21</v>
@@ -4213,7 +4222,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="45"/>
       <c r="B8" s="79" t="s">
         <v>23</v>
@@ -4225,7 +4234,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="45"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
@@ -4235,37 +4244,37 @@
         <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="47"/>
       <c r="F10" s="86" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="47"/>
       <c r="F11" s="86" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="47"/>
       <c r="F12" s="86" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="47"/>
       <c r="F13" s="86" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="47"/>
       <c r="F14" s="86" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="47"/>
     </row>
   </sheetData>
